--- a/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
+++ b/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
@@ -1073,8 +1073,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact details for the applicant or applicants, including email and phone numbers
-</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1206,9 +1205,7 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details about the applicants for the planning application,
-including their personal information and contact details
-</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1416,8 +1413,7 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact details of the agent acting on behalf of the applicant
-</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -1549,8 +1545,7 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details of the agent acting on behalf of the applicant
-</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -1818,8 +1813,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identifies the national requirement types that apply to this application type
-</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -1853,8 +1847,7 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Declaration by the applicant or agent confirming the accuracy of the information provided
-</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1940,8 +1933,7 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information required for hedgerow removal notices including removal reasons, plans, length details, age considerations, and interest declarations
-</t>
+          <t>Details of any hedgerows being removed as part of the development</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -2105,8 +2097,7 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about any pre-application advice sought from the planning authority
-</t>
+          <t>Details of pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -2244,9 +2235,7 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about the location and extent of the site where development 
-or works are proposed
-</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -2524,8 +2513,7 @@
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details needed to support a site visit by the planning authority
-</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">

--- a/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
+++ b/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice received from the planning authority</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">

--- a/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
+++ b/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
@@ -697,7 +697,7 @@
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>The name or title of the document</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">

--- a/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
+++ b/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,11 +438,12 @@
     <col width="27" customWidth="1" min="1" max="1"/>
     <col width="72" customWidth="1" min="2" max="2"/>
     <col width="31" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="72" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="72" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -473,15 +474,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>field4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>datatype</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>requirement</t>
         </is>
@@ -500,22 +506,27 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -526,22 +537,27 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
           <t>Application types[]</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>A list of planning application types that define the nature of the planning application</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -552,22 +568,27 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>Application sub type</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>Further classification of the application type for specific variations within the main application type</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -578,22 +599,27 @@
       <c r="B5" s="2" t="n"/>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>Planning authority</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -604,22 +630,27 @@
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>Submission date</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>Date the application is submitted in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -630,22 +661,27 @@
       <c r="B7" s="2" t="n"/>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>Modules[]</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>List of required modules for this application that can be used to validate the application</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -656,26 +692,31 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>A reference for the document</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -686,26 +727,31 @@
       <c r="B9" s="2" t="n"/>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>The name or title of the document</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -716,26 +762,31 @@
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>Brief description of what the document contains</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -746,26 +797,31 @@
       <c r="B11" s="2" t="n"/>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Document types[]</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>List of codelist references that the document covers</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -776,30 +832,35 @@
       <c r="B12" s="2" t="n"/>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>A URL pointing to the stored file</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -810,30 +871,35 @@
       <c r="B13" s="2" t="n"/>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>Base64</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -844,30 +910,35 @@
       <c r="B14" s="2" t="n"/>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>Filename</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>Name of the file being uploaded</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -878,30 +949,35 @@
       <c r="B15" s="2" t="n"/>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>MIME type</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -912,30 +988,35 @@
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>Checksum</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -946,30 +1027,35 @@
       <c r="B17" s="2" t="n"/>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>File size</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -980,26 +1066,31 @@
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>The total amount due for the application fee</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1010,26 +1101,31 @@
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>Amount paid</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>The amount paid towards the application fee</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1040,26 +1136,31 @@
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>Transactions[]</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1083,17 +1184,18 @@
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1113,17 +1215,18 @@
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1147,17 +1250,18 @@
           <t>Phone number</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>A phone number</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1181,17 +1285,18 @@
           <t>Contact priority</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>The priority of a number</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="H24" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1219,17 +1324,18 @@
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1253,17 +1359,18 @@
           <t>Title</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>The title of the individual</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1287,17 +1394,18 @@
           <t>First Name</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>The first name of the individual</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1321,17 +1429,18 @@
           <t>Last Name</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>The last name of the individual</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1355,17 +1464,18 @@
           <t>Address Text</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1389,17 +1499,18 @@
           <t>Postcode</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1423,17 +1534,18 @@
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>A reference to an agent object</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1453,17 +1565,18 @@
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1487,17 +1600,18 @@
           <t>Phone number</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr">
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr">
         <is>
           <t>A phone number</t>
         </is>
       </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1521,17 +1635,18 @@
           <t>Contact priority</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr">
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <t>The priority of a number</t>
         </is>
       </c>
-      <c r="G34" s="2" t="inlineStr">
+      <c r="H34" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H34" s="2" t="inlineStr">
+      <c r="I34" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1559,17 +1674,18 @@
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1593,17 +1709,18 @@
           <t>Title</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr">
         <is>
           <t>The title of the individual</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1627,17 +1744,18 @@
           <t>First Name</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr">
         <is>
           <t>The first name of the individual</t>
         </is>
       </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1661,17 +1779,18 @@
           <t>Last Name</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr">
         <is>
           <t>The last name of the individual</t>
         </is>
       </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1695,17 +1814,18 @@
           <t>Address Text</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1729,17 +1849,18 @@
           <t>Postcode</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr">
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1759,17 +1880,18 @@
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr">
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr">
         <is>
           <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1789,17 +1911,18 @@
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr">
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr">
         <is>
           <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
-      <c r="G42" s="2" t="inlineStr">
+      <c r="H42" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H42" s="2" t="inlineStr">
+      <c r="I42" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1823,17 +1946,18 @@
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr">
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr">
         <is>
           <t>List of the document types required for the given application type</t>
         </is>
       </c>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1857,17 +1981,18 @@
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>A name of a person</t>
         </is>
       </c>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1883,17 +2008,18 @@
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr">
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr">
         <is>
           <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
-      <c r="G45" s="2" t="inlineStr">
+      <c r="H45" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H45" s="2" t="inlineStr">
+      <c r="I45" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1909,17 +2035,18 @@
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr">
         <is>
           <t>The date the declaration was made</t>
         </is>
       </c>
-      <c r="G46" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1943,17 +2070,18 @@
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr">
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr">
         <is>
           <t>Reasons for the proposed removal of hedgerow(s)</t>
         </is>
       </c>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1969,17 +2097,18 @@
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr">
         <is>
           <t>References to plans showing the stretches of hedgerows to be removed</t>
         </is>
       </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1995,17 +2124,18 @@
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr">
         <is>
           <t>Total length, in metres, of hedgerow proposed for removal</t>
         </is>
       </c>
-      <c r="G49" s="2" t="inlineStr">
+      <c r="H49" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H49" s="2" t="inlineStr">
+      <c r="I49" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2021,17 +2151,18 @@
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr"/>
-      <c r="F50" s="2" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr">
         <is>
           <t>Is the hedgerow less than 30 years old?</t>
         </is>
       </c>
-      <c r="G50" s="2" t="inlineStr">
+      <c r="H50" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H50" s="2" t="inlineStr">
+      <c r="I50" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2047,17 +2178,18 @@
       </c>
       <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr">
         <is>
           <t>Is evidence of the date of planting attached?</t>
         </is>
       </c>
-      <c r="G51" s="2" t="inlineStr">
+      <c r="H51" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H51" s="2" t="inlineStr">
+      <c r="I51" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2073,17 +2205,18 @@
       </c>
       <c r="D52" s="2" t="inlineStr"/>
       <c r="E52" s="2" t="inlineStr"/>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr">
         <is>
           <t>The applicant's interest or ownership in the hedgerow</t>
         </is>
       </c>
-      <c r="G52" s="2" t="inlineStr">
+      <c r="H52" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H52" s="2" t="inlineStr">
+      <c r="I52" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2107,17 +2240,18 @@
       </c>
       <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr">
         <is>
           <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
-      <c r="G53" s="2" t="inlineStr">
+      <c r="H53" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H53" s="2" t="inlineStr">
+      <c r="I53" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2133,17 +2267,18 @@
       </c>
       <c r="D54" s="2" t="inlineStr"/>
       <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr">
         <is>
           <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
-      <c r="G54" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2159,17 +2294,18 @@
       </c>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G55" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2185,17 +2321,18 @@
       </c>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr">
         <is>
           <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2211,17 +2348,18 @@
       </c>
       <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr">
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr">
         <is>
           <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2249,17 +2387,18 @@
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
-      <c r="F58" s="2" t="inlineStr">
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr">
         <is>
           <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
-      <c r="G58" s="2" t="inlineStr">
+      <c r="H58" s="2" t="inlineStr">
         <is>
           <t>wkt</t>
         </is>
       </c>
-      <c r="H58" s="2" t="inlineStr">
+      <c r="I58" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2279,17 +2418,18 @@
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr">
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2309,17 +2449,18 @@
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
-      <c r="F60" s="2" t="inlineStr">
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2339,17 +2480,18 @@
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr">
         <is>
           <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
-      <c r="G61" s="2" t="inlineStr">
+      <c r="H61" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H61" s="2" t="inlineStr">
+      <c r="I61" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2369,17 +2511,18 @@
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
-      <c r="F62" s="2" t="inlineStr">
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr">
         <is>
           <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
-      <c r="G62" s="2" t="inlineStr">
+      <c r="H62" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H62" s="2" t="inlineStr">
+      <c r="I62" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2399,17 +2542,18 @@
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
-      <c r="F63" s="2" t="inlineStr">
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr">
         <is>
           <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
-      <c r="G63" s="2" t="inlineStr">
+      <c r="H63" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H63" s="2" t="inlineStr">
+      <c r="I63" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2429,17 +2573,18 @@
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="2" t="inlineStr">
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr">
         <is>
           <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
-      <c r="G64" s="2" t="inlineStr">
+      <c r="H64" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H64" s="2" t="inlineStr">
+      <c r="I64" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2459,17 +2604,18 @@
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr">
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr">
         <is>
           <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2489,17 +2635,18 @@
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
-      <c r="F66" s="2" t="inlineStr">
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr">
         <is>
           <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
-      <c r="G66" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2523,17 +2670,18 @@
       </c>
       <c r="D67" s="2" t="inlineStr"/>
       <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr">
+      <c r="F67" s="2" t="inlineStr"/>
+      <c r="G67" s="2" t="inlineStr">
         <is>
           <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
-      <c r="G67" s="2" t="inlineStr">
+      <c r="H67" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H67" s="2" t="inlineStr">
+      <c r="I67" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2549,17 +2697,18 @@
       </c>
       <c r="D68" s="2" t="inlineStr"/>
       <c r="E68" s="2" t="inlineStr"/>
-      <c r="F68" s="2" t="inlineStr">
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr">
         <is>
           <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
-      <c r="G68" s="2" t="inlineStr">
+      <c r="H68" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H68" s="2" t="inlineStr">
+      <c r="I68" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2575,17 +2724,18 @@
       </c>
       <c r="D69" s="2" t="inlineStr"/>
       <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr">
+      <c r="F69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr">
         <is>
           <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
-      <c r="G69" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2605,17 +2755,18 @@
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="2" t="inlineStr">
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr">
         <is>
           <t>The complete name of a person</t>
         </is>
       </c>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2635,17 +2786,18 @@
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="2" t="inlineStr">
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr">
         <is>
           <t>A phone number</t>
         </is>
       </c>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2665,17 +2817,18 @@
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
-      <c r="F72" s="2" t="inlineStr">
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr">
         <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="G72" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>

--- a/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
+++ b/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">

--- a/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
+++ b/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
@@ -611,7 +611,7 @@
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">

--- a/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
+++ b/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,12 +847,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1032,22 +1032,18 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1057,7 +1053,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1076,13 +1072,13 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1111,48 +1107,48 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1162,32 +1158,28 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1211,14 +1203,18 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1247,18 +1243,18 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1268,51 +1264,47 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1320,14 +1312,18 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1337,7 +1333,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1356,13 +1352,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1372,7 +1368,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1391,13 +1387,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1426,13 +1422,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1461,13 +1457,13 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1477,32 +1473,32 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n"/>
-      <c r="B30" s="2" t="n"/>
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -1512,32 +1508,28 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -1561,14 +1553,18 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1578,7 +1574,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1597,18 +1593,18 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -1618,51 +1614,47 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n"/>
-      <c r="B34" s="2" t="n"/>
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1670,14 +1662,18 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -1687,7 +1683,7 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1706,13 +1702,13 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1722,7 +1718,7 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1741,13 +1737,13 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1776,13 +1772,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1811,13 +1807,13 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1827,7 +1823,7 @@
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1841,18 +1837,14 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1876,19 +1868,19 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
@@ -1898,50 +1890,54 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Declaration</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -1949,7 +1945,7 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -1964,19 +1960,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -1984,12 +1972,12 @@
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
@@ -2003,7 +1991,7 @@
       <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -2011,12 +1999,12 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
@@ -2026,11 +2014,19 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Hedgerow removal notice</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Details of any hedgerows being removed as part of the development</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Removal reasons</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -2038,7 +2034,7 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Reasons for the proposed removal of hedgerow(s)</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -2053,19 +2049,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>Hedgerow removal notice</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>Details of any hedgerows being removed as part of the development</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Removal reasons</t>
+          <t>Plan references[]</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2073,7 +2061,7 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Reasons for the proposed removal of hedgerow(s)</t>
+          <t>References to plans showing the stretches of hedgerows to be removed</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -2092,7 +2080,7 @@
       <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Plan references[]</t>
+          <t>Hedgerow length</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2100,12 +2088,12 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>References to plans showing the stretches of hedgerows to be removed</t>
+          <t>Total length, in metres, of hedgerow proposed for removal</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -2119,7 +2107,7 @@
       <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Hedgerow length</t>
+          <t>Hedgerow less than 30 years</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -2127,12 +2115,12 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Total length, in metres, of hedgerow proposed for removal</t>
+          <t>Is the hedgerow less than 30 years old?</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
@@ -2146,7 +2134,7 @@
       <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Hedgerow less than 30 years</t>
+          <t>Planting evidence attached</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -2154,7 +2142,7 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Is the hedgerow less than 30 years old?</t>
+          <t>Is evidence of the date of planting attached?</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -2164,7 +2152,7 @@
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2161,7 @@
       <c r="B51" s="2" t="n"/>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Planting evidence attached</t>
+          <t>Interest declaration</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -2181,26 +2169,34 @@
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Is evidence of the date of planting attached?</t>
+          <t>The applicant's interest or ownership in the hedgerow</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n"/>
-      <c r="B52" s="2" t="n"/>
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Interest declaration</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -2208,12 +2204,12 @@
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>The applicant's interest or ownership in the hedgerow</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
@@ -2223,19 +2219,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A53" s="2" t="n"/>
+      <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -2243,17 +2231,17 @@
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2250,7 @@
       <c r="B54" s="2" t="n"/>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
@@ -2270,7 +2258,7 @@
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -2289,7 +2277,7 @@
       <c r="B55" s="2" t="n"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
@@ -2297,7 +2285,7 @@
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -2316,7 +2304,7 @@
       <c r="B56" s="2" t="n"/>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
@@ -2324,7 +2312,7 @@
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -2339,24 +2327,36 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n"/>
-      <c r="B57" s="2" t="n"/>
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
@@ -2366,16 +2366,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A58" s="2" t="n"/>
+      <c r="B58" s="2" t="n"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -2383,19 +2375,19 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
@@ -2414,14 +2406,14 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -2445,19 +2437,19 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
@@ -2476,14 +2468,14 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -2507,14 +2499,14 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -2538,14 +2530,14 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -2569,19 +2561,19 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
@@ -2600,14 +2592,14 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -2622,50 +2614,46 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr"/>
       <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A67" s="2" t="n"/>
+      <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
@@ -2673,12 +2661,12 @@
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
@@ -2692,7 +2680,7 @@
       <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr"/>
@@ -2700,17 +2688,17 @@
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2719,15 +2707,19 @@
       <c r="B69" s="2" t="n"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -2737,7 +2729,7 @@
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2751,14 +2743,14 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -2782,14 +2774,14 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
@@ -2798,37 +2790,6 @@
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n"/>
-      <c r="B72" s="2" t="n"/>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="inlineStr"/>
-      <c r="F72" s="2" t="inlineStr"/>
-      <c r="G72" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="H72" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I72" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2836,28 +2797,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A43"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="B43"/>
-    <mergeCell ref="A58:A66"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B58:B66"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A57:A65"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
+++ b/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,17 +964,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,22 +993,18 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1018,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1037,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1072,48 +1068,48 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1123,32 +1119,28 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1172,14 +1164,18 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1189,7 +1185,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1208,18 +1204,18 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1229,51 +1225,47 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1281,14 +1273,18 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1298,7 +1294,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1317,13 +1313,13 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1333,7 +1329,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1352,13 +1348,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1387,13 +1383,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1422,13 +1418,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1438,32 +1434,32 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n"/>
-      <c r="B29" s="2" t="n"/>
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1473,32 +1469,28 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A30" s="2" t="n"/>
+      <c r="B30" s="2" t="n"/>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -1522,14 +1514,18 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -1539,7 +1535,7 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1558,18 +1554,18 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -1579,51 +1575,47 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n"/>
-      <c r="B33" s="2" t="n"/>
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="2" t="n"/>
       <c r="C34" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1631,14 +1623,18 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -1648,7 +1644,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1667,13 +1663,13 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -1683,7 +1679,7 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1702,13 +1698,13 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1737,13 +1733,13 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1772,13 +1768,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1788,7 +1784,7 @@
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1802,18 +1798,14 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1837,19 +1829,19 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
@@ -1859,50 +1851,54 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Declaration</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
@@ -1910,7 +1906,7 @@
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
@@ -1925,19 +1921,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -1945,12 +1933,12 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
@@ -1964,7 +1952,7 @@
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -1972,12 +1960,12 @@
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
@@ -1987,11 +1975,19 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Hedgerow removal notice</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Details of any hedgerows being removed as part of the development</t>
+        </is>
+      </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Removal reasons</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -1999,7 +1995,7 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Reasons for the proposed removal of hedgerow(s)</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -2014,19 +2010,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>Hedgerow removal notice</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Details of any hedgerows being removed as part of the development</t>
-        </is>
-      </c>
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Removal reasons</t>
+          <t>Plan references[]</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -2034,7 +2022,7 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Reasons for the proposed removal of hedgerow(s)</t>
+          <t>References to plans showing the stretches of hedgerows to be removed</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -2053,7 +2041,7 @@
       <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Plan references[]</t>
+          <t>Hedgerow length</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2061,12 +2049,12 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>References to plans showing the stretches of hedgerows to be removed</t>
+          <t>Total length, in metres, of hedgerow proposed for removal</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2080,7 +2068,7 @@
       <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Hedgerow length</t>
+          <t>Hedgerow less than 30 years</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2088,12 +2076,12 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Total length, in metres, of hedgerow proposed for removal</t>
+          <t>Is the hedgerow less than 30 years old?</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -2107,7 +2095,7 @@
       <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Hedgerow less than 30 years</t>
+          <t>Planting evidence attached</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -2115,7 +2103,7 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Is the hedgerow less than 30 years old?</t>
+          <t>Is evidence of the date of planting attached?</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
@@ -2125,7 +2113,7 @@
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2122,7 @@
       <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Planting evidence attached</t>
+          <t>Interest declaration</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -2142,26 +2130,34 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Is evidence of the date of planting attached?</t>
+          <t>The applicant's interest or ownership in the hedgerow</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Interest declaration</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -2169,12 +2165,12 @@
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>The applicant's interest or ownership in the hedgerow</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
@@ -2184,19 +2180,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -2204,17 +2192,17 @@
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2211,7 @@
       <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -2231,7 +2219,7 @@
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
@@ -2250,7 +2238,7 @@
       <c r="B54" s="2" t="n"/>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
@@ -2258,7 +2246,7 @@
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -2277,7 +2265,7 @@
       <c r="B55" s="2" t="n"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
@@ -2285,7 +2273,7 @@
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -2300,24 +2288,36 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
@@ -2327,16 +2327,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A57" s="2" t="n"/>
+      <c r="B57" s="2" t="n"/>
       <c r="C57" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -2344,19 +2336,19 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
@@ -2375,14 +2367,14 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -2406,19 +2398,19 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
@@ -2437,14 +2429,14 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -2468,14 +2460,14 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -2499,14 +2491,14 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -2530,19 +2522,19 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
@@ -2561,14 +2553,14 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -2583,50 +2575,46 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n"/>
-      <c r="B65" s="2" t="n"/>
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr"/>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A66" s="2" t="n"/>
+      <c r="B66" s="2" t="n"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
@@ -2634,12 +2622,12 @@
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
@@ -2653,7 +2641,7 @@
       <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
@@ -2661,17 +2649,17 @@
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2680,15 +2668,19 @@
       <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E68" s="2" t="inlineStr"/>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -2698,7 +2690,7 @@
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2712,14 +2704,14 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -2743,14 +2735,14 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -2759,37 +2751,6 @@
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n"/>
-      <c r="B71" s="2" t="n"/>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="2" t="inlineStr"/>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="H71" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I71" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2797,28 +2758,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="B66:B71"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A57:A65"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B42"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="A42"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="B41"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A41"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
+++ b/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,27 +842,23 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -886,12 +882,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +897,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -925,12 +921,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +936,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -964,17 +960,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,18 +989,22 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1033,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1068,48 +1068,48 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1119,28 +1119,32 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1164,18 +1168,14 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1204,18 +1204,18 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1225,47 +1225,51 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1273,18 +1277,14 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1313,13 +1313,13 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1348,13 +1348,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1383,13 +1383,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1418,13 +1418,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1434,32 +1434,32 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="inlineStr"/>
+          <t>Applicants[]</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1469,28 +1469,32 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n"/>
-      <c r="B30" s="2" t="n"/>
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -1514,18 +1518,14 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1554,18 +1554,18 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -1575,47 +1575,51 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n"/>
-      <c r="B34" s="2" t="n"/>
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1623,18 +1627,14 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1663,13 +1663,13 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1698,13 +1698,13 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1733,13 +1733,13 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1768,13 +1768,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1798,14 +1798,18 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1829,19 +1833,19 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>User role</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
@@ -1851,54 +1855,50 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Checklist</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr"/>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>User role</t>
+        </is>
+      </c>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Declaration</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
@@ -1906,7 +1906,7 @@
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
@@ -1921,11 +1921,19 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -1933,12 +1941,12 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
@@ -1952,7 +1960,7 @@
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -1960,12 +1968,12 @@
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
@@ -1975,19 +1983,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>Hedgerow removal notice</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>Details of any hedgerows being removed as part of the development</t>
-        </is>
-      </c>
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Removal reasons</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -1995,7 +1995,7 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Reasons for the proposed removal of hedgerow(s)</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -2010,11 +2010,19 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Hedgerow removal notice</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Details of any hedgerows being removed as part of the development</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Plan references[]</t>
+          <t>Removal reasons</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -2022,7 +2030,7 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>References to plans showing the stretches of hedgerows to be removed</t>
+          <t>Reasons for the proposed removal of hedgerow(s)</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -2041,7 +2049,7 @@
       <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Hedgerow length</t>
+          <t>Plan references[]</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2049,12 +2057,12 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Total length, in metres, of hedgerow proposed for removal</t>
+          <t>References to plans showing the stretches of hedgerows to be removed</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2068,7 +2076,7 @@
       <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Hedgerow less than 30 years</t>
+          <t>Hedgerow length</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2076,12 +2084,12 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Is the hedgerow less than 30 years old?</t>
+          <t>Total length, in metres, of hedgerow proposed for removal</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -2095,7 +2103,7 @@
       <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Planting evidence attached</t>
+          <t>Hedgerow less than 30 years</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -2103,7 +2111,7 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Is evidence of the date of planting attached?</t>
+          <t>Is the hedgerow less than 30 years old?</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
@@ -2113,7 +2121,7 @@
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2122,7 +2130,7 @@
       <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Interest declaration</t>
+          <t>Planting evidence attached</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -2130,34 +2138,26 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>The applicant's interest or ownership in the hedgerow</t>
+          <t>Is evidence of the date of planting attached?</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A51" s="2" t="n"/>
+      <c r="B51" s="2" t="n"/>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Interest declaration</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -2165,12 +2165,12 @@
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>The applicant's interest or ownership in the hedgerow</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
@@ -2180,11 +2180,19 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n"/>
-      <c r="B52" s="2" t="n"/>
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -2192,17 +2200,17 @@
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2219,7 @@
       <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -2219,7 +2227,7 @@
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
@@ -2238,7 +2246,7 @@
       <c r="B54" s="2" t="n"/>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
@@ -2246,7 +2254,7 @@
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -2265,7 +2273,7 @@
       <c r="B55" s="2" t="n"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
@@ -2273,7 +2281,7 @@
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -2288,36 +2296,24 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>Site boundary</t>
-        </is>
-      </c>
+          <t>Advice summary</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
@@ -2327,8 +2323,16 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n"/>
-      <c r="B57" s="2" t="n"/>
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -2336,19 +2340,19 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
@@ -2367,14 +2371,14 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -2398,19 +2402,19 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
@@ -2429,14 +2433,14 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -2460,14 +2464,14 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -2491,14 +2495,14 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -2522,19 +2526,19 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
@@ -2553,14 +2557,14 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -2575,46 +2579,50 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A65" s="2" t="n"/>
+      <c r="B65" s="2" t="n"/>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>UPRNs[]</t>
+        </is>
+      </c>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Site seen from public area</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
@@ -2622,12 +2630,12 @@
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
@@ -2641,7 +2649,7 @@
       <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
@@ -2649,17 +2657,17 @@
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2668,19 +2676,15 @@
       <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr"/>
       <c r="E68" s="2" t="inlineStr"/>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -2690,7 +2694,7 @@
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2704,14 +2708,14 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -2735,22 +2739,53 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
+          <t>A phone number</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n"/>
+      <c r="B71" s="2" t="n"/>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="inlineStr">
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2758,28 +2793,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="B41"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A41"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A57:A65"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
+++ b/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
@@ -708,7 +708,7 @@
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">

--- a/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
+++ b/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
@@ -2049,15 +2049,19 @@
       <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Plan references[]</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>References to plans showing the stretches of hedgerows to be removed</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">

--- a/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
+++ b/generated/spreadsheet/hedgerow-removal-notice-hedgerow-removal.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
